--- a/dataset_2022/new.xlsx
+++ b/dataset_2022/new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IoT\4-Elevate\GPT4_vitas\dataset_2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40E8C44-FEBB-4675-B0C7-F9BE1FE7ACD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6BD5FA-618E-4DD7-AA63-F75C7ACA9F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8040" yWindow="700" windowWidth="14360" windowHeight="15280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Elevate(large)" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="1155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1811" uniqueCount="1211">
   <si>
     <t>skill name</t>
   </si>
@@ -3486,6 +3486,174 @@
   </si>
   <si>
     <t>{"0": "M39YBSFMWAB3NG"}</t>
+  </si>
+  <si>
+    <t>B07L8GBRCD</t>
+  </si>
+  <si>
+    <t>EZContacts Customer Service</t>
+  </si>
+  <si>
+    <t>EzContacts</t>
+  </si>
+  <si>
+    <t>{"en-US": ["\u201dAlexa, ask EZ Contacts where is my order?\u201d", "\u201dAlexa, tell EZ Contacts I want to track my package\u201d"]}</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61yV5sfxnYL.png</t>
+  </si>
+  <si>
+    <t>{"en-US": "e. z. contacts"}</t>
+  </si>
+  <si>
+    <t>{"en-US": "http://www.letslinc.com/privacy-policy"}</t>
+  </si>
+  <si>
+    <t>{"en-US": "Use Alexa to ask questions about all your EZContacts orders. Get status updates anytime you like with the voice-activated convenience you love from Alexa"}</t>
+  </si>
+  <si>
+    <t>{"en-US": "Get updates on your orders placed with EZContacts, find out when they will arrive as you need to."}</t>
+  </si>
+  <si>
+    <t>Get updates on your orders placed with EZContacts, find out when they will arrive as you need to.</t>
+  </si>
+  <si>
+    <t>2018-12-10T12:17:50Z</t>
+  </si>
+  <si>
+    <t>2018-12-10T07:28:17Z</t>
+  </si>
+  <si>
+    <t>{"en-US": "EZContacts Customer Service"}</t>
+  </si>
+  <si>
+    <t>{"0": "MX5NQOO458YTW"}</t>
+  </si>
+  <si>
+    <t>B07BH6JV1B</t>
+  </si>
+  <si>
+    <t>Creative Coach</t>
+  </si>
+  <si>
+    <t>Punchcut</t>
+  </si>
+  <si>
+    <t>{"en-CA": ["\u201dAlexa, ask Creative Coach for an idea.\u201d", "\u201dAlexa, get a writing prompt from Creative Coach.\u201d", "\u201dAlexa, tell Creative Coach I need a drawing exercise.\u201d"], "en-US": ["\u201dAlexa, ask Creative Coach for an idea.\u201d", "\u201dAlexa, get a writing prompt from Creative Coach.\u201d", "\u201dAlexa, tell Creative Coach I need a drawing exercise.\u201d"], "en-IN": ["\u201dAlexa, ask Creative Coach for an idea.\u201d", "\u201dAlexa, get a writing prompt from Creative Coach.\u201d", "\u201dAlexa, tell Creative Coach I need a drawing exercise.\u201d"], "en-GB": ["\u201dAlexa, ask Creative Coach for an idea.\u201d", "\u201dAlexa, get a writing prompt from Creative Coach.\u201d", "\u201dAlexa, tell Creative Coach I need a drawing exercise.\u201d"]}</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/610YInmR18L.png</t>
+  </si>
+  <si>
+    <t>{"en-IN": "creative coach", "en-US": "creative coach", "en-CA": "creative coach", "en-GB": "creative coach"}</t>
+  </si>
+  <si>
+    <t>{"en-IN": "Enhance your creativity with the support of Creative Coach. Ask Creative Coach each day for a creative exercise in photography, drawing, writing or design. Each creative exercise prompts you to expand your mind and stretch your creative muscles. Integrate it into your routine and watch your creative energy and insight bloom. Be ready to tackle new life challenges and feel inspired.\n\nShare your daily creations with others using #creativecoach. ", "en-CA": "Enhance your creativity with the support of Creative Coach. Ask Creative Coach each day for a creative exercise in photography, drawing, writing or design. Each creative exercise prompts you to expand your mind and stretch your creative muscles. Integrate it into your routine and watch your creative energy and insight bloom. Be ready to tackle new life challenges and feel inspired.\n\nShare your daily creations with others using #creativecoach. ", "en-US": "Enhance your creativity with the support of Creative Coach. Ask Creative Coach each day for a creative exercise in photography, drawing, writing or design. Each creative exercise prompts you to expand your mind and stretch your creative muscles. Integrate it into your routine and watch your creative energy and insight bloom. Be ready to tackle new life challenges and feel inspired.\n\nShare your daily creations with others using #creativecoach. ", "en-GB": "Enhance your creativity with the support of Creative Coach. Ask Creative Coach each day for a creative exercise in photography, drawing, writing or design. Each creative exercise prompts you to expand your mind and stretch your creative muscles. Integrate it into your routine and watch your creative energy and insight bloom. Be ready to tackle new life challenges and feel inspired.\n\nShare your daily creations with others using #creativecoach. "}</t>
+  </si>
+  <si>
+    <t>{"en-IN": "Start each day the creative way with daily creative exercises from Creative Coach.", "en-CA": "Start each day the creative way with daily creative exercises from Creative Coach.", "en-US": "Start each day the creative way with daily creative exercises from Creative Coach.", "en-GB": "Start each day the creative way with daily creative exercises from Creative Coach."}</t>
+  </si>
+  <si>
+    <t>Start each day the creative way with daily creative exercises from Creative Coach.</t>
+  </si>
+  <si>
+    <t>2018-03-21T08:21:50Z</t>
+  </si>
+  <si>
+    <t>2018-03-20T19:22:33Z</t>
+  </si>
+  <si>
+    <t>{"en-IN": "Creative Coach", "en-CA": "Creative Coach", "en-US": "Creative Coach", "en-GB": "Creative Coach"}</t>
+  </si>
+  <si>
+    <t>{"0": "M3V0QZ243HZ2AY"}</t>
+  </si>
+  <si>
+    <t>B084C3L1BH</t>
+  </si>
+  <si>
+    <t>Truth or Dare - Complete Edition</t>
+  </si>
+  <si>
+    <t>CMSV</t>
+  </si>
+  <si>
+    <t>{"en-US": ["\u201dAlexa, open Truth or Dare Complete Edition\u201d", "\u201dAlexa, start Truth or Dare Complete Edition\u201d", "\u201dAlexa, launch Truth or Dare Complete Edition\u201d"]}</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61XTxLISAjL.png</t>
+  </si>
+  <si>
+    <t>{"en-US": "truth or dare complete edition"}</t>
+  </si>
+  <si>
+    <t>{"en-US": "https://creator.voiceflow.com/creator/privacy_policy?name=Leorita%20Velasquez&amp;skill=Whose%20Turn"}</t>
+  </si>
+  <si>
+    <t>{"en-US": "https://creator.voiceflow.com/creator/terms?name=Leorita%20Velasquez&amp;skill=Whose%20Turn"}</t>
+  </si>
+  <si>
+    <t>{"en-US": "Truth or Dare complete edition is a fun game that you can play with a group of two up to ten people. To start playing, say, \"Alexa, open Truth or Dare Complete Edition.\""}</t>
+  </si>
+  <si>
+    <t>{"en-US": "A fun game to play with friends and colleagues from age 12 and above."}</t>
+  </si>
+  <si>
+    <t>A fun game to play with friends and colleagues from age 12 and above.</t>
+  </si>
+  <si>
+    <t>2020-01-30T15:29:24Z</t>
+  </si>
+  <si>
+    <t>2020-01-30T13:38:10Z</t>
+  </si>
+  <si>
+    <t>{"en-US": "Truth or Dare - Complete Edition"}</t>
+  </si>
+  <si>
+    <t>{"0": "M2D1Y2AB2S9SNE"}</t>
+  </si>
+  <si>
+    <t>B084KGT8RJ</t>
+  </si>
+  <si>
+    <t>Legacy Oaks Reservations</t>
+  </si>
+  <si>
+    <t>VoCo</t>
+  </si>
+  <si>
+    <t>{"en-US": ["\u201dAlexa, open Legacy Oaks Reservations\u201d", "\u201dAlexa, start Legacy Oaks Reservations\u201d", "\u201dAlexa, launch Legacy Oaks Reservations\u201d"]}</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61offQOmV9L.png</t>
+  </si>
+  <si>
+    <t>{"en-US": "legacy oaks reservations"}</t>
+  </si>
+  <si>
+    <t>{"en-US": "https://creator.voiceflow.com/creator/terms?name=Leon%20Coe&amp;skill=Legacy%20Oaks%20Reservations&amp;children=false"}</t>
+  </si>
+  <si>
+    <t>{"en-US": "This skill allows seniors to RSVP for events at their community."}</t>
+  </si>
+  <si>
+    <t>{"en-US": "This skill lets seniors at Legacy Oaks of Midlothian place reseverations"}</t>
+  </si>
+  <si>
+    <t>This skill lets seniors at Legacy Oaks of Midlothian place reseverations</t>
+  </si>
+  <si>
+    <t>2020-02-06T18:43:27Z</t>
+  </si>
+  <si>
+    <t>2020-02-06T18:14:51Z</t>
+  </si>
+  <si>
+    <t>{"en-US": "Legacy Oaks Reservations"}</t>
+  </si>
+  <si>
+    <t>{"0": "M3BZ4UUB9NXMHA"}</t>
   </si>
 </sst>
 </file>
@@ -7488,8 +7656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68:XFD118"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="119" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64:XFD64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -11830,31 +11998,307 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B62"/>
-    </row>
-    <row r="63" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B64"/>
-    </row>
-    <row r="65" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D62" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E62" s="1">
+        <v>19</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G62" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="L62" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="Q62" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="S62" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="T62" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="U62" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="V62" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="W62" s="1" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D63" s="1">
+        <v>5</v>
+      </c>
+      <c r="E63" s="1">
+        <v>1</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G63" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="L63" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="S63" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="T63" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="U63" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="V63" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="W63" s="1" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D64" s="2">
+        <v>5</v>
+      </c>
+      <c r="E64" s="2">
+        <v>1</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="G64" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>1185</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="L64" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>1187</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="O64" s="2" t="s">
+        <v>1189</v>
+      </c>
+      <c r="P64" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="Q64" s="2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="R64" s="2" t="s">
+        <v>1192</v>
+      </c>
+      <c r="S64" s="2" t="s">
+        <v>1193</v>
+      </c>
+      <c r="T64" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="U64" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="V64" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="W64" s="2" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D65" s="1">
+        <v>5</v>
+      </c>
+      <c r="E65" s="1">
+        <v>1</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G65" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="L65" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="R65" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="S65" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="T65" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="U65" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="V65" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="W65" s="1" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B67"/>
     </row>
-    <row r="68" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
